--- a/data/trans_dic/P25A$rendimiento-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Provincia-trans_dic.xlsx
@@ -678,26 +678,26 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01184871405005742</v>
+        <v>0.0207570133774233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09385318515651515</v>
+        <v>0.0931073820811484</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03707397250766847</v>
+        <v>0.03824215857678488</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01672462987893924</v>
+        <v>0.01663436680542869</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08701539334228617</v>
+        <v>0.08447081229765642</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1421579940102445</v>
+        <v>0.1304745721336378</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.149688311426411</v>
+        <v>0.1601500253260433</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2535480394105193</v>
+        <v>0.2495984043356708</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.1743191482362665</v>
+        <v>0.1825857304221763</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1946542095066489</v>
+        <v>0.2112866595045581</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08684733856280616</v>
+        <v>0.08530677196457467</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1268233892824965</v>
+        <v>0.1294934568112184</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2108006841160379</v>
+        <v>0.2027363346536264</v>
       </c>
     </row>
     <row r="7">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009021240418299001</v>
+        <v>0.009135660354399494</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01256056727647049</v>
+        <v>0.01314533452693938</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005275402986038519</v>
+        <v>0.005225387449959437</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009909735080105583</v>
+        <v>0.01029124656747608</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08322100051475381</v>
+        <v>0.08089152592157049</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05100806056169472</v>
+        <v>0.05253246776568241</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09308985947062753</v>
+        <v>0.08254467179901266</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1813516797572211</v>
+        <v>0.2082867531496082</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0873423730058404</v>
+        <v>0.07505519567533578</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2151665267640963</v>
+        <v>0.1978548646008047</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07529596185112071</v>
+        <v>0.07821094818459054</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05103170764782857</v>
+        <v>0.04605262741076502</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08967638271542419</v>
+        <v>0.09228766268069044</v>
       </c>
     </row>
     <row r="10">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02913066483894863</v>
+        <v>0.02866479958787867</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.02400890903634257</v>
+        <v>0.02291791549284012</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -920,27 +920,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1577236611946631</v>
+        <v>0.1708701618074549</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05688998129034376</v>
+        <v>0.06914576831290385</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08036169285760966</v>
+        <v>0.07740061850123743</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.1765221147019808</v>
+        <v>0.1585351231947273</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.1264980179787514</v>
+        <v>0.1346512996511786</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05968587069886769</v>
+        <v>0.06293636579709723</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05247473998596874</v>
+        <v>0.05273275468959911</v>
       </c>
     </row>
     <row r="13">
@@ -993,28 +993,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03975585913200551</v>
+        <v>0.04000518758571431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01954659939135004</v>
+        <v>0.02068609116141906</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05110135715887739</v>
+        <v>0.05061647800869333</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04047308905133743</v>
+        <v>0.04092375866730495</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02619004891598228</v>
+        <v>0.02643514341931406</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0336790107560231</v>
+        <v>0.03385831267375738</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03635538402958394</v>
+        <v>0.03654125404913947</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0894301170667496</v>
+        <v>0.08501695470838376</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1568685838672067</v>
+        <v>0.1560587400991134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1255973912538139</v>
+        <v>0.1117120386453324</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2772831756212539</v>
+        <v>0.2618293201822859</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1129096640739595</v>
+        <v>0.1011952475120273</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.220707527289302</v>
+        <v>0.2294303045386009</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1192517346655374</v>
+        <v>0.1102872632610309</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1119155806919956</v>
+        <v>0.122300830488856</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1217996013736595</v>
+        <v>0.126926467758764</v>
       </c>
     </row>
     <row r="16">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02810822110696611</v>
+        <v>0.02935702967939328</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01237937828016799</v>
+        <v>0.01224432972458278</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01927493409643135</v>
+        <v>0.01908541507070053</v>
       </c>
     </row>
     <row r="18">
@@ -1131,26 +1131,26 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.09879436492393023</v>
+        <v>0.1008160865386925</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.239355163329565</v>
+        <v>0.232266425100796</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1651813667314684</v>
+        <v>0.1763790213426978</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2328150454850163</v>
+        <v>0.2264054315399635</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.05687716993327402</v>
+        <v>0.06856038532052927</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1034739485160102</v>
+        <v>0.1017894258360497</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1483565420219679</v>
+        <v>0.1640390563964217</v>
       </c>
     </row>
     <row r="19">
@@ -1214,7 +1214,7 @@
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.01190312682251992</v>
+        <v>0.01204384957033109</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1231,27 +1231,27 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.113775109645711</v>
+        <v>0.112181261334514</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05181158727727168</v>
+        <v>0.06145072055164671</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1881225357106256</v>
+        <v>0.192971712563665</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2736025675528526</v>
+        <v>0.2731606717919955</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.1055056089637226</v>
+        <v>0.1071258573202886</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05002784677311309</v>
+        <v>0.039873784452488</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1378184922338872</v>
+        <v>0.1396937704923883</v>
       </c>
     </row>
     <row r="22">
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01874708911589019</v>
+        <v>0.01841649004151664</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.007135197723267344</v>
+        <v>0.00705934068861586</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1319,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.007517700245824835</v>
+        <v>0.007714282542984634</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01928476693228768</v>
+        <v>0.01827918031833615</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.008818887722594326</v>
+        <v>0.009844201981944429</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07186241880983819</v>
+        <v>0.06374279630384586</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09087450819839892</v>
+        <v>0.09113667044718934</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07938588420022283</v>
+        <v>0.09080934936221238</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1769338746201263</v>
+        <v>0.1726985430503511</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07280777917622705</v>
+        <v>0.07824330756674695</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08796089041355544</v>
+        <v>0.08283277241254784</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07094437256199022</v>
+        <v>0.07702992276214914</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06716961324185143</v>
+        <v>0.06785593243843577</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0607576792600322</v>
+        <v>0.06044496693168575</v>
       </c>
     </row>
     <row r="25">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.006054009367565004</v>
+        <v>0.006155036921576834</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.00740840398061942</v>
+        <v>0.007502159161256437</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01116240359759639</v>
+        <v>0.01094830251777705</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01444286752845025</v>
+        <v>0.01405737891033646</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01296143258473928</v>
+        <v>0.01325410243603208</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01607321492616749</v>
+        <v>0.01505261380136023</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.006478676363535016</v>
+        <v>0.006433979624909414</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06317813084544445</v>
+        <v>0.05728064148951418</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.07187681528665378</v>
+        <v>0.07685259400441777</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05989609838019624</v>
+        <v>0.05587468434853464</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1140842168486749</v>
+        <v>0.1139250249535856</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1291946002569114</v>
+        <v>0.1330442293608046</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1030604075843075</v>
+        <v>0.1060429458360326</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05822673520606046</v>
+        <v>0.06238209682034272</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.08051355117910453</v>
+        <v>0.07153861193708801</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05284686619810116</v>
+        <v>0.06093560280402686</v>
       </c>
     </row>
     <row r="28">
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02031758320505778</v>
+        <v>0.01966821497227282</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0338216377445566</v>
+        <v>0.03509895880268631</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01564914951025814</v>
+        <v>0.01657551846487611</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02984546885040462</v>
+        <v>0.02941134715494643</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02656607538460742</v>
+        <v>0.02683798294386944</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02653817855252924</v>
+        <v>0.02642032266392394</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03746892023641234</v>
+        <v>0.0365737268327407</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04721505152970952</v>
+        <v>0.04728025304612966</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.06953077507145611</v>
+        <v>0.07294218304500849</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05466674580952159</v>
+        <v>0.0580768784410002</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.07506472886320655</v>
+        <v>0.07573568030737318</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.0516434544043517</v>
+        <v>0.05147121480998889</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0485656747872707</v>
+        <v>0.04756860992195402</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.0658044304539854</v>
+        <v>0.06693812984380643</v>
       </c>
     </row>
     <row r="31">
@@ -1814,26 +1814,26 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>961</v>
+        <v>1683</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7411</v>
+        <v>7352</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1927</v>
+        <v>1988</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11394</v>
+        <v>11061</v>
       </c>
     </row>
     <row r="7">
@@ -1844,29 +1844,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6603</v>
+        <v>6060</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12140</v>
+        <v>12988</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20020</v>
+        <v>19708</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>6979</v>
+        <v>7309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10118</v>
+        <v>10983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5777</v>
+        <v>5675</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15362</v>
+        <v>15686</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>27602</v>
+        <v>26546</v>
       </c>
     </row>
     <row r="8">
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1755</v>
+        <v>1836</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1007</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11">
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9475</v>
+        <v>9209</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6169</v>
+        <v>6353</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6733</v>
+        <v>5970</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>4689</v>
+        <v>5385</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5224</v>
+        <v>4489</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6303</v>
+        <v>5796</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10519</v>
+        <v>10926</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9224</v>
+        <v>8324</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9113</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="12">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1857</v>
+        <v>1827</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>1872</v>
+        <v>1787</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -2126,27 +2126,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10053</v>
+        <v>10891</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4682</v>
+        <v>5691</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4983</v>
+        <v>4799</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>5786</v>
+        <v>5197</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>9864</v>
+        <v>10499</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6869</v>
+        <v>7243</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4703</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="16">
@@ -2234,28 +2234,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4192</v>
+        <v>4218</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1702</v>
+        <v>1802</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2974</v>
+        <v>3002</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5117</v>
+        <v>5144</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4790</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="19">
@@ -2266,31 +2266,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6786</v>
+        <v>6451</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16540</v>
+        <v>16454</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10939</v>
+        <v>9729</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10449</v>
+        <v>9866</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5249</v>
+        <v>4705</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9857</v>
+        <v>10247</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13542</v>
+        <v>12524</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17003</v>
+        <v>18581</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>16048</v>
+        <v>16723</v>
       </c>
     </row>
     <row r="20">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>892</v>
+        <v>931</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="23">
@@ -2407,26 +2407,26 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>4982</v>
+        <v>5083</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7594</v>
+        <v>7369</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4795</v>
+        <v>5120</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6252</v>
+        <v>6079</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>3989</v>
+        <v>4809</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7996</v>
+        <v>7866</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>7241</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="24">
@@ -2525,7 +2525,7 @@
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
@@ -2542,27 +2542,27 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6015</v>
+        <v>5931</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4306</v>
+        <v>5107</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8348</v>
+        <v>8563</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5147</v>
+        <v>5139</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>7563</v>
+        <v>7679</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5251</v>
+        <v>4185</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8431</v>
+        <v>8545</v>
       </c>
     </row>
     <row r="28">
@@ -2650,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3047</v>
+        <v>2993</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
@@ -2665,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>940</v>
+        <v>965</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4905</v>
+        <v>4649</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1864</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="31">
@@ -2682,31 +2682,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6623</v>
+        <v>5875</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14770</v>
+        <v>14812</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10075</v>
+        <v>11525</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5816</v>
+        <v>5677</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>6685</v>
+        <v>7184</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>7427</v>
+        <v>6994</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>8870</v>
+        <v>9631</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>17084</v>
+        <v>17259</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>12841</v>
+        <v>12775</v>
       </c>
     </row>
     <row r="32">
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2731</v>
+        <v>2793</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3169</v>
+        <v>2968</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1076</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="35">
@@ -2826,31 +2826,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>8751</v>
+        <v>7934</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>9360</v>
+        <v>10008</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6115</v>
+        <v>5705</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8235</v>
+        <v>8223</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8647</v>
+        <v>8904</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>6590</v>
+        <v>6781</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>12268</v>
+        <v>13143</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>15873</v>
+        <v>14104</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>8775</v>
+        <v>10118</v>
       </c>
     </row>
     <row r="36">
@@ -2935,31 +2935,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>12690</v>
+        <v>12284</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>20479</v>
+        <v>21252</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>6049</v>
+        <v>6407</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>10022</v>
+        <v>9877</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>23253</v>
+        <v>23491</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>31916</v>
+        <v>31774</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>35270</v>
+        <v>34427</v>
       </c>
     </row>
     <row r="39">
@@ -2970,31 +2970,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>29489</v>
+        <v>29530</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>42101</v>
+        <v>44166</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>21132</v>
+        <v>22450</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>25207</v>
+        <v>25433</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>45204</v>
+        <v>45053</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>58407</v>
+        <v>57208</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>61942</v>
+        <v>63009</v>
       </c>
     </row>
     <row r="40">
